--- a/reports/PC_REPORT_10_28_2023.xlsx
+++ b/reports/PC_REPORT_10_28_2023.xlsx
@@ -485,7 +485,7 @@
         <v>929</v>
       </c>
       <c r="D2" t="n">
-        <v>899</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>890.9</v>
@@ -494,7 +494,7 @@
         <v>899.95</v>
       </c>
       <c r="G2" t="n">
-        <v>890.9</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -513,7 +513,7 @@
         <v>415</v>
       </c>
       <c r="D3" t="n">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>406.9</v>
@@ -522,7 +522,7 @@
         <v>414.95</v>
       </c>
       <c r="G3" t="n">
-        <v>406.9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -541,7 +541,7 @@
         <v>144</v>
       </c>
       <c r="D4" t="n">
-        <v>144.99</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>122.9</v>
@@ -550,7 +550,7 @@
         <v>121.96</v>
       </c>
       <c r="G4" t="n">
-        <v>121.96</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>63.5</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>63.89</v>
@@ -578,7 +578,7 @@
         <v>70.95</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -625,7 +625,7 @@
         <v>170</v>
       </c>
       <c r="D8" t="n">
-        <v>143.91</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>170.9</v>
@@ -634,7 +634,7 @@
         <v>164.95</v>
       </c>
       <c r="G8" t="n">
-        <v>143.91</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -653,7 +653,7 @@
         <v>316</v>
       </c>
       <c r="D9" t="n">
-        <v>293.99</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>295.91</v>
@@ -662,7 +662,7 @@
         <v>299.95</v>
       </c>
       <c r="G9" t="n">
-        <v>293.99</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -679,7 +679,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1920.66</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/reports/PC_REPORT_10_28_2023.xlsx
+++ b/reports/PC_REPORT_10_28_2023.xlsx
@@ -485,7 +485,7 @@
         <v>929</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>899</v>
       </c>
       <c r="E2" t="n">
         <v>890.9</v>
@@ -494,7 +494,7 @@
         <v>899.95</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>890.9</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -513,7 +513,7 @@
         <v>415</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="E3" t="n">
         <v>406.9</v>
@@ -522,7 +522,7 @@
         <v>414.95</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>406.9</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -541,7 +541,7 @@
         <v>144</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>144.91</v>
       </c>
       <c r="E4" t="n">
         <v>122.9</v>
@@ -550,7 +550,7 @@
         <v>121.96</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>121.96</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>63.5</v>
       </c>
       <c r="E5" t="n">
         <v>63.89</v>
@@ -578,7 +578,7 @@
         <v>70.95</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -625,7 +625,7 @@
         <v>170</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>143.91</v>
       </c>
       <c r="E8" t="n">
         <v>170.9</v>
@@ -634,7 +634,7 @@
         <v>164.95</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>143.91</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -653,7 +653,7 @@
         <v>316</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>293.99</v>
       </c>
       <c r="E9" t="n">
         <v>295.91</v>
@@ -662,7 +662,7 @@
         <v>299.95</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>293.99</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -679,7 +679,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>1920.66</v>
       </c>
     </row>
   </sheetData>
